--- a/data/financial_statements/soci/HAL.xlsx
+++ b/data/financial_statements/soci/HAL.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -131,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -488,4193 +602,4277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>5582000000</v>
+      </c>
+      <c r="C2">
         <v>5357000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5074000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4284000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4277000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3860000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3707000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3451000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3237000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2975000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3196000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5037000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5191000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5550000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>5930000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>5737000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>5936000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>6172000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>6147000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>5740000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>5940000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>5444000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4957000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4279000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4021000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3833000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3835000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>4198000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>5082000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>5582000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>5919000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>7050000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>8770000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>8701000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>8051000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>7348000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>7639000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>7472000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>7317000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>6974000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.3051</v>
+      </c>
+      <c r="C3">
         <v>0.3878</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.3688</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2414</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.3213</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2975</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.1599</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.3149</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.3764</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.464</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.461</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.122</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.1255</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.1008</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.0353</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.0005</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-0.0007</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1337</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.2401</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.3414</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.4772</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.4203</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.2926</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0193</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.2088</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.3133</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.3521</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.4045</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.4205</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.3585</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.2648</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.0406</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.1481</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.1645</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.1003</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0536</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0479</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0508</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0115</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.0154</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1046000000</v>
+      </c>
+      <c r="C4">
         <v>4452000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4289000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3699000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3668000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3356000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3222000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3033000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2843000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2659000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2917000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4481000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4586000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>4961000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>5324000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>5252000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>5269000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>5384000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>5293000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>5063000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>5101000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>4747000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>4474000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>4021000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3698000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>3662000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>3732000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>3925000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>4556000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>5039000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>5233000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>6285000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>7270000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>6993000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>6768000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>6303000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>6401000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>6284000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>6246000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>6000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>4536000000</v>
+      </c>
+      <c r="C5">
         <v>905000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>785000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>585000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>609000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>504000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>485000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>418000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>394000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>316000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>279000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>556000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>605000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>589000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>606000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>485000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>667000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>788000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>854000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>677000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>839000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>697000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>483000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>258000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>323000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>171000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>103000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>273000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>526000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>543000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>686000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>765000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1500000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1708000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1283000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1045000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1238000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1188000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1071000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>974000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>59000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>67000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>52000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>59000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>46000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>51000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>48000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>44000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>41000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>43000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>54000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>59000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>53000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>56000000</v>
-      </c>
-      <c r="P6">
-        <v>59000000</v>
       </c>
       <c r="Q6">
         <v>59000000</v>
       </c>
       <c r="R6">
+        <v>59000000</v>
+      </c>
+      <c r="S6">
         <v>72000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>65000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>58000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>71000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>55000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>75000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>55000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>94000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>43000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>41000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>48000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>54000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>37000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>43000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>66000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>55000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>74000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>89000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>75000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>94000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>80000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>87000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>72000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>4466000000</v>
+      </c>
+      <c r="C7">
         <v>846000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>374000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>511000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>550000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>446000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>434000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>370000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-96000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>142000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-1911000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-571000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-1652000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>536000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>303000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>365000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>608000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>716000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>789000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>354000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>383000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>642000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>146000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>203000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>61000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>128000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>-3880000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>-3079000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>86000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>43000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>254000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-548000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1299000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1634000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1194000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>970000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1144000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1108000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>984000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-98000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>124000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>125000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>126000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>129000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>131000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>134000000</v>
-      </c>
-      <c r="H8">
-        <v>135000000</v>
       </c>
       <c r="I8">
         <v>135000000</v>
       </c>
       <c r="J8">
+        <v>135000000</v>
+      </c>
+      <c r="K8">
         <v>133000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>131000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>144000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>146000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>74000000</v>
+      </c>
+      <c r="C9">
         <v>93000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>101000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>107000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>108000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>116000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>120000000</v>
-      </c>
-      <c r="H9">
-        <v>125000000</v>
       </c>
       <c r="I9">
         <v>125000000</v>
       </c>
       <c r="J9">
+        <v>125000000</v>
+      </c>
+      <c r="K9">
         <v>122000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>124000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>134000000</v>
-      </c>
-      <c r="M9">
-        <v>141000000</v>
       </c>
       <c r="N9">
         <v>141000000</v>
       </c>
       <c r="O9">
+        <v>141000000</v>
+      </c>
+      <c r="P9">
         <v>144000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>143000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>137000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>140000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>137000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>140000000</v>
-      </c>
-      <c r="U9">
-        <v>115000000</v>
       </c>
       <c r="V9">
         <v>115000000</v>
       </c>
       <c r="W9">
+        <v>115000000</v>
+      </c>
+      <c r="X9">
         <v>121000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>242000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>137000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>141000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>196000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>165000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>136000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>99000000</v>
-      </c>
-      <c r="AE9">
-        <v>106000000</v>
       </c>
       <c r="AF9">
         <v>106000000</v>
       </c>
       <c r="AG9">
+        <v>106000000</v>
+      </c>
+      <c r="AH9">
         <v>100000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>96000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>94000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>93000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>98000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>91000000</v>
-      </c>
-      <c r="AM9">
-        <v>71000000</v>
       </c>
       <c r="AN9">
         <v>71000000</v>
       </c>
+      <c r="AO9">
+        <v>71000000</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>-134000000</v>
+      </c>
+      <c r="C10">
         <v>-141000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-143000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-179000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-132000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-130000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-139000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-147000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-144000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-143000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-172000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-325000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-185000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-164000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-152000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-173000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-150000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-182000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-156000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-165000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-139000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-146000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-147000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-260000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-236000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-180000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-227000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-212000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-179000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-133000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-129000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-330000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-59000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-84000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-118000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-124000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-104000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-103000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-82000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-85000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>842000000</v>
+      </c>
+      <c r="C11">
         <v>705000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>231000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>332000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>418000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>316000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>295000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>223000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-240000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-1000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-2083000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-896000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-1837000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>372000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>151000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>192000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>458000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>534000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>633000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>189000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>244000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>496000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-1000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-57000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-175000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-52000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-4107000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-3291000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-93000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-90000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>125000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-878000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1240000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1550000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1076000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>846000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1040000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1005000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>902000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-183000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>177000000</v>
+      </c>
+      <c r="C12">
         <v>156000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>114000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>68000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-409000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>76000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>65000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>52000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-13000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>18000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-402000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>119000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-183000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>76000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>74000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>40000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-210000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>100000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>125000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>142000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1050000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>135000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-29000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-25000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-22000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-59000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-902000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-875000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-67000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-37000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>71000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-241000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>336000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>411000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>299000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>229000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>268000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>296000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>256000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-172000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>665000000</v>
+      </c>
+      <c r="C13">
         <v>549000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>117000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>264000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>827000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>240000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>230000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>171000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-227000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-19000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-1681000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-1015000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-1654000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>296000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>77000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>152000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>668000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>434000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>508000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>47000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-806000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>361000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>28000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-32000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-153000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>7000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-3205000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-2416000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-26000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-53000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>54000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-637000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>904000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>1139000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>777000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>617000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>772000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>709000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>646000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-11000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>9000000</v>
+      </c>
+      <c r="C14">
         <v>5000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>8000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>8000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-2000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-5000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-1000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-1000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-3000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-1000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-4000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>0</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-4000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>3000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-6000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>2000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-1000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>2000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>4000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-6000000</v>
-      </c>
-      <c r="AK14">
-        <v>2000000</v>
       </c>
       <c r="AL14">
         <v>2000000</v>
       </c>
       <c r="AM14">
+        <v>2000000</v>
+      </c>
+      <c r="AN14">
         <v>4000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>656000000</v>
+      </c>
+      <c r="C15">
         <v>544000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>109000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>263000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>824000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>236000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>227000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>170000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-235000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-17000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-1676000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-1017000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-1653000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>295000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>75000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>152000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>664000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>435000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>511000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>46000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-824000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>365000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>28000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-32000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-149000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>6000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-3208000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-2412000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-28000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-54000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>54000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-643000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>901000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1203000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>774000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>622000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>793000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>706000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>644000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-18000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>0.6</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.12</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.29</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.92</v>
-      </c>
-      <c r="F16">
-        <v>0.26</v>
       </c>
       <c r="G16">
         <v>0.26</v>
       </c>
       <c r="H16">
+        <v>0.26</v>
+      </c>
+      <c r="I16">
         <v>0.19</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-0.27</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.02</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-1.91</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-1.16</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-1.88</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.34</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.09</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.17</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.76</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.5</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.58</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.05</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.42</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.03</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-0.04</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-0.17</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.01</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-3.73</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-2.81</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-0.03</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-0.06</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>0.06</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-0.76</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1.06</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1.42</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.92</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.73</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.93</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.79</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0.73</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>0.6</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.12</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.29</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.92</v>
-      </c>
-      <c r="F17">
-        <v>0.26</v>
       </c>
       <c r="G17">
         <v>0.26</v>
       </c>
       <c r="H17">
+        <v>0.26</v>
+      </c>
+      <c r="I17">
         <v>0.19</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.27</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-0.02</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-1.91</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-1.16</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-1.88</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.34</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.09</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.17</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.76</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.5</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.58</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.05</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.42</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.03</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-0.04</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-0.17</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.01</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-3.73</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-2.81</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-0.03</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-0.06</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.06</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-0.76</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1.06</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1.41</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.91</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.73</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.93</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.79</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0.73</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>906000000</v>
+      </c>
+      <c r="C18">
         <v>908000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>904000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>899000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>892000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>894000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>890000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>889000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>881000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>882000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>877000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>878000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>875000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>876000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>874000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>873000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>875000000</v>
-      </c>
-      <c r="R18">
-        <v>877000000</v>
       </c>
       <c r="S18">
         <v>877000000</v>
       </c>
       <c r="T18">
+        <v>877000000</v>
+      </c>
+      <c r="U18">
         <v>875000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>870000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>872000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>869000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>867000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>861000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>862000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>860000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>858000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>853000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>855000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>852000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>850000000</v>
-      </c>
-      <c r="AG18">
-        <v>848000000</v>
       </c>
       <c r="AH18">
         <v>848000000</v>
       </c>
       <c r="AI18">
+        <v>848000000</v>
+      </c>
+      <c r="AJ18">
         <v>846000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>849000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>898000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>890000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>925000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>931000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>910000000</v>
       </c>
       <c r="C19">
+        <v>910000000</v>
+      </c>
+      <c r="D19">
         <v>909000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>903000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>892000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>894000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>890000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>889000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>881000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>882000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>877000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>878000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>875000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>876000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>875000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>873000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>877000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>878000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>880000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>878000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>870000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>873000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>871000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>867000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>861000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>864000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>860000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>858000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>853000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>855000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>854000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>850000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>852000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>854000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>852000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>853000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>902000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>894000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>928000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>931000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.8126</v>
+      </c>
+      <c r="C20">
         <v>0.1689</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.1547</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.1366</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.1424</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.1306</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.1308</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.1211</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.1217</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.1062</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.0873</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.1104</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.1165</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.1061</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.1022</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.08450000000000001</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.1124</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.1277</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.1389</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.1179</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.1412</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.128</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.0974</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.0603</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.0803</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.0446</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.0269</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.065</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.1035</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.0973</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.1159</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.1085</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.171</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.1963</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.1594</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.1422</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.1621</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.159</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.1464</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.1397</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.8001</v>
+      </c>
+      <c r="C21">
         <v>0.1579</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.0737</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.1193</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.1286</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.1155</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.1171</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.1072</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-0.0297</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.0477</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-0.5979</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-0.1134</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-0.3182</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.09660000000000001</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.0511</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.0636</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.1024</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.116</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.1284</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.0617</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0645</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.1179</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.0295</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.0474</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.0152</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.0334</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-1.0117</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>-0.7334000000000001</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.0169</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.0077</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.0429</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-0.07770000000000001</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.1481</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.1878</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.1483</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.132</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.1498</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.1483</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.1345</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-0.0141</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.1508</v>
+      </c>
+      <c r="C22">
         <v>0.1316</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.0455</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.0775</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.0977</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.0819</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.0796</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.0646</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.0741</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-0.0003</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-0.6518</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-0.1779</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-0.3539</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.067</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.0255</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.0335</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.0772</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.08649999999999999</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.103</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.0329</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0411</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0911</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-0.0002</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-0.0133</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-0.0435</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-0.0136</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-1.0709</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-0.7839</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-0.0183</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-0.0161</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.0211</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-0.1245</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.1414</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.1781</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.1336</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1151</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1361</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.1345</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1233</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-0.0262</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.1175</v>
+      </c>
+      <c r="C23">
         <v>0.1015</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.0215</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.0614</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.1927</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.0611</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.0612</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.0493</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-0.0726</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-0.0057</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-0.5244</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-0.2019</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-0.3184</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.0532</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.0126</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.0265</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.1119</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.07049999999999999</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.08309999999999999</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.008</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-0.1387</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.067</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.0056</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>-0.0075</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-0.0371</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.0016</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-0.8365</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-0.5746</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-0.0055</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-0.0097</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.0091</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-0.0912</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.1027</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.1383</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.0961</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.08459999999999999</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1038</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.0945</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.08799999999999999</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-0.0026</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>1080000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>612000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>743000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>781000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>670000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>657000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>596000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>133000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>372000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-1660000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-223000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-1280000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>953000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>723000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>781000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1030000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1116000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1179000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>748000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>776000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1036000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>532000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>586000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>447000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>503000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-3484000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-2733000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>488000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>460000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>710000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>12000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>1856000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>2169000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>1718000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>1480000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>1641000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1589000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1458000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>350000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>4466000000</v>
+      </c>
+      <c r="C25">
         <v>846000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>374000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>511000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>550000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>446000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>434000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>370000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-96000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>142000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-1911000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-571000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-1652000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>536000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>303000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>365000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>608000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>716000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>789000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>354000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>383000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>642000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>146000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>203000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>61000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>128000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-3880000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-3079000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>86000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>43000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>254000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-548000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1299000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1634000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1194000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>970000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1144000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1108000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>984000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-98000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>665000000</v>
+      </c>
+      <c r="C26">
         <v>549000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>117000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>264000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>827000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>240000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>230000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>171000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-227000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-19000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-1681000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-1015000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-1654000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>296000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>77000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>152000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>668000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>434000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>508000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>47000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-806000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>361000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>28000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>-32000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-153000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>7000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-3205000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-2416000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-26000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-53000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>54000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>-637000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>904000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1139000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>777000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>617000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>772000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>709000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>646000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>-11000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC27">
         <v>-2000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-1000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-4000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>1000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>66000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-2000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-1000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>23000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-1000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>2000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-5000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>665000000</v>
+      </c>
+      <c r="C28">
         <v>549000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>117000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>264000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>827000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>240000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>230000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>171000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-227000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-19000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-1681000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-1015000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-1654000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>296000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>77000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>152000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>668000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>434000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>508000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>47000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-825000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>361000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>28000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-32000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-153000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>7000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-3205000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-2418000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-26000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-53000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>53000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-641000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>905000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>1205000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>775000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>616000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>795000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>708000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>648000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-16000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>0.734</v>
+      </c>
+      <c r="C29">
         <v>0.6046</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.1294</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.2937</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.9265</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.2685</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.2584</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.1924</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-0.245</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-0.0215</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-1.9168</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-1.156</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-1.8904</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.3379</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.0881</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.1741</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.7659</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.4949</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.5792</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.0537</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-0.9193</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.414</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.0322</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-0.0369</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-0.1555</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.0081</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-3.7267</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-2.8159</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-0.03</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-0.06</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>0.06</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-0.75</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>1.06</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1.34</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.92</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.73</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.88</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.79</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>0.7308</v>
+      </c>
+      <c r="C30">
         <v>0.6032999999999999</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.1287</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.2924</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.9265</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.2685</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.2584</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.1924</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-0.245</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.0215</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-1.9168</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-1.156</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-1.8903</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.3379</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.08799999999999999</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.1741</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.7643</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.4943</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.5773</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.0535</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-0.9188</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.4135</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.0321</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-0.0369</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-0.1555</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.0081</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-3.7267</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-2.8159</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-0.03</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-0.06</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.06</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-0.75</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1.06</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1.33</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.91</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.73</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.86</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.79</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z31">
         <v>0</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-0.0023</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-0.01</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.0035</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.08</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-0.0023</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-0.0012</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.039</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-0.0011</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.0022</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z32">
         <v>0</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-0.0023</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>0</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-0.01</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>0.0024</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>0.08</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-0.0024</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>0</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>0.0211</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-0.0011</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>0.01</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>0.734</v>
+      </c>
+      <c r="C33">
         <v>0.6046</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.1294</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.2937</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.9265</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.2685</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.2584</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.1924</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.245</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-0.0215</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-1.9168</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-1.156</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-1.8904</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.3379</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.0881</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.1741</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.7659</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.4949</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.5792</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.0537</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-0.9472</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.414</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.0322</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-0.0369</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-0.1635</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.0081</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-3.7267</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-2.8182</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-0.028</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-0.062</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.0622</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-0.7541</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>1.0659</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>1.421</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.9161</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.7256</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.8986</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.7955</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.7005</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-0.0172</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0.7308</v>
+      </c>
+      <c r="C34">
         <v>0.6032999999999999</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.1287</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.2924</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.9265</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.2685</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.2584</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.1924</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.245</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.0215</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>-1.9168</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-1.156</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-1.8903</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.3379</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.08799999999999999</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.1741</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.7643</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.4943</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.5773</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.0535</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-0.9467</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.4135</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.0321</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>-0.0369</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>-0.1635</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.0081</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>-3.7267</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>-2.8182</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-0.0279</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>-0.062</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.0621</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>-0.7541</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>1.0664</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>1.411</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.9096</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.7222</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.8939</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.7919</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.6983</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>-0.0172</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
         <v>910000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>909000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>903000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>896000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>894000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>890000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>889000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>885000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>882000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>877000000</v>
-      </c>
-      <c r="L35">
-        <v>878000000</v>
       </c>
       <c r="M35">
         <v>878000000</v>
       </c>
       <c r="N35">
+        <v>878000000</v>
+      </c>
+      <c r="O35">
         <v>876000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>875000000</v>
-      </c>
-      <c r="P35">
-        <v>873000000</v>
       </c>
       <c r="Q35">
         <v>873000000</v>
       </c>
       <c r="R35">
+        <v>873000000</v>
+      </c>
+      <c r="S35">
         <v>878000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>880000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>878000000</v>
-      </c>
-      <c r="U35">
-        <v>873000000</v>
       </c>
       <c r="V35">
         <v>873000000</v>
       </c>
       <c r="W35">
+        <v>873000000</v>
+      </c>
+      <c r="X35">
         <v>871000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>867000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>865000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>864000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>860000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>858000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>856000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>855000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>854000000</v>
-      </c>
-      <c r="AF35">
-        <v>850000000</v>
       </c>
       <c r="AG35">
         <v>850000000</v>
       </c>
       <c r="AH35">
+        <v>850000000</v>
+      </c>
+      <c r="AI35">
         <v>854000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>852000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>853000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>854000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>894000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>928000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>931000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>0.2016</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.1206</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.1734</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.1826</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.1736</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.1772</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.1727</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.0411</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.125</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>-0.5194</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>-0.0443</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>-0.2466</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>0.1717</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.1219</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>0.1361</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0.1735</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>0.1808</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>0.1918</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>0.1303</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.1306</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.1903</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.1073</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>0.1369</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>0.1112</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>0.1312</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>-0.9085</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>-0.651</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>0.096</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>0.0824</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>0.12</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>0.0017</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>0.2116</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>0.2493</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>0.2134</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>0.2014</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>0.2148</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>0.2127</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>0.1993</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>0.0502</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>0.2083</v>
+      </c>
+      <c r="C37">
         <v>0.1406</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.0741</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-0.0117</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.1595</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.1598</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.1103</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.0588</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.1971</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.1412</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.1871</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.0447</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.2248</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>0.1569</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.0761</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>-0.0077</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.1435</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.1259</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.1555</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>0.0997</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.1702</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.2032</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.0698</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>0.0012</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>0.2634</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>0.2716</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>-0.9471000000000001</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>-0.0407</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>0.1741</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>0.0047</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>0.1999</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>0.1152</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>0.131</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>0.0963</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>0.1392</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>0.1298</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>0.2485</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>0.1443</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>0.1533</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>0.05</v>
       </c>
     </row>
